--- a/biology/Médecine/Muscle_buccinateur/Muscle_buccinateur.xlsx
+++ b/biology/Médecine/Muscle_buccinateur/Muscle_buccinateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle buccinateur est un muscle profond de la joue. Il a la forme d'un rectangle. Il s'insère sur l'os maxillaire dans l'os alvéolaire en haut et l'os mandibule dans l'os alvéolaire et la crête buccinatrice en bas. Il est traversé par le nerf buccal, branche du nerf mandibulaire (V3), qui le traverse sans l'innerver. L'innervation se fait par le nerf facial (VII) et permet lors de sa contraction de vider le contenu de la bouche.
 Le muscle buccinateur s'insère en avant sur le muscle orbiculaire de la bouche et en arrière sur le raphé ptérygomandibulaire qui est une corde tendue entre le processus ptérygoïde et la mandibule. Quand il se contracte, les aliments sont ramenés dans la bouche. C'est ce qui rend la mastication efficace.
